--- a/Doc/Configs.xlsx
+++ b/Doc/Configs.xlsx
@@ -77,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,16 +415,16 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,7 +448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -472,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -496,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -520,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>

--- a/Doc/Configs.xlsx
+++ b/Doc/Configs.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
+    <sheet name="Item" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>string</t>
   </si>
@@ -71,6 +72,47 @@
   </si>
   <si>
     <t>升级消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品2</t>
+  </si>
+  <si>
+    <t>物品3</t>
+  </si>
+  <si>
+    <t>物品4</t>
+  </si>
+  <si>
+    <t>角色升级所用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,4 +575,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>